--- a/Plans_biweekly.xlsx
+++ b/Plans_biweekly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bciap\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visible_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>To Do</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
   <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +803,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
